--- a/config_debug/freestyle_server.xlsx
+++ b/config_debug/freestyle_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="game_main" sheetId="2" r:id="rId1"/>
@@ -2015,7 +2015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
@@ -3518,8 +3518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4025,7 +4025,7 @@
         <v>67</v>
       </c>
       <c r="D26" s="1">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -4255,7 +4255,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
